--- a/Horizontal_Format.xlsx
+++ b/Horizontal_Format.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariam Hassanein\OneDrive - Faculty Of Computer and Information Technology (Ain Shams University)\FCIS\Year2023-2024\DataMining\Task\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C7951-5183-4FD6-AA60-8916FEDA2509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr fullPrecision="1" calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
   <si>
     <t>TiD</t>
   </si>
@@ -44,43 +38,95 @@
     <t>items</t>
   </si>
   <si>
-    <t>M,O,N,K,E,Y</t>
+    <t>MM,OO,NN,KK,EE,YY</t>
   </si>
   <si>
-    <t>D,O,N,K,E,Y</t>
+    <t>DD,OO,NN,KK,EE,YY</t>
   </si>
   <si>
-    <t>M,A,K,E</t>
+    <t>MM,AA,KK,EE</t>
   </si>
   <si>
-    <t>M,U,C,K,Y</t>
+    <t>MM,UU,CC,KK,YY</t>
   </si>
   <si>
-    <t>C,O,O,K,I,E</t>
+    <t>CC,OO,OO,KK,II,EE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2B579A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,19 +134,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -407,16 +472,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9D1CA8-0BC0-434C-8D78-4C97C59906F6}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView view="normal" tabSelected="1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.34765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -469,16 +535,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <extLst/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb">
+      <UserInfo>
+        <DisplayName>Data Mining Fall 23 Members</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,15 +732,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+<p:properties xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties">
   <documentManagement>
+    <MediaServiceMetadata/>
+    <MediaServiceFastMetadata/>
+    <MediaServiceSearchProperties/>
+    <MediaServiceObjectDetectorVersions/>
     <SharedWithUsers xmlns="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb">
-      <UserInfo>
+      <UserInfo xmlns="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb">
         <DisplayName>Data Mining Fall 23 Members</DisplayName>
         <AccountId>7</AccountId>
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
+    <SharedWithDetails/>
   </documentManagement>
 </p:properties>
 </file>

--- a/Horizontal_Format.xlsx
+++ b/Horizontal_Format.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11" count="10">
   <si>
     <t>TiD</t>
   </si>
@@ -38,19 +38,31 @@
     <t>items</t>
   </si>
   <si>
-    <t>MM,OO,NN,KK,EE,YY</t>
-  </si>
-  <si>
-    <t>DD,OO,NN,KK,EE,YY</t>
-  </si>
-  <si>
-    <t>MM,AA,KK,EE</t>
-  </si>
-  <si>
-    <t>MM,UU,CC,KK,YY</t>
-  </si>
-  <si>
-    <t>CC,OO,OO,KK,II,EE</t>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>1,2,4,5</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>1,3,5</t>
+  </si>
+  <si>
+    <t>C,O,O,K,I,E</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>powder</t>
   </si>
 </sst>
 </file>
@@ -152,7 +164,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -474,7 +486,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView view="normal" tabSelected="1" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" sqref="B7"/>
@@ -487,52 +499,45 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
@@ -541,20 +546,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb">
-      <UserInfo>
-        <DisplayName>Data Mining Fall 23 Members</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A694FDA5A4A9B4C955A75A119721A31" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3a1add5fd4b5ca4e05fa32894a95c15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="74da1de0-f6d7-489d-9dff-0562fa577a13" xmlns:ns3="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9816d51dd986a7759f4443b081d626d" ns2:_="" ns3:_="">
     <xsd:import namespace="74da1de0-f6d7-489d-9dff-0562fa577a13"/>
@@ -731,7 +722,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties">
   <documentManagement>
     <MediaServiceMetadata/>
@@ -750,8 +741,27 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties">
+  <documentManagement>
+    <SharedWithUsers xmlns="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb">
+      <UserInfo xmlns="7ad949dd-674d-43a6-bbb3-bc4895a6ddcb">
+        <DisplayName>Data Mining Fall 23 Members</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <MediaServiceMetadata/>
+    <MediaServiceFastMetadata/>
+    <MediaServiceSearchProperties/>
+    <MediaServiceObjectDetectorVersions/>
+    <SharedWithDetails/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D540E59-D978-4DE5-8C0B-87772B1C6FBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{572176B5-3D82-4937-A9F3-A1C424F84703}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,5 +769,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{572176B5-3D82-4937-A9F3-A1C424F84703}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D540E59-D978-4DE5-8C0B-87772B1C6FBD}"/>
 </file>